--- a/Descargas/R15_2º Juzgado De Garantia De Santiago_Ingresos Causas Por Materia_2020-Abríl.xlsx
+++ b/Descargas/R15_2º Juzgado De Garantia De Santiago_Ingresos Causas Por Materia_2020-Abríl.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B27" s="65">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28">
@@ -781,7 +781,7 @@
         </is>
       </c>
       <c r="B58" s="65">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="59">
@@ -791,7 +791,7 @@
         </is>
       </c>
       <c r="B59" s="65">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="60">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B85" s="65">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="86">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="B87" s="65">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="88">
